--- a/data/trans_orig/P51_1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10225</v>
+        <v>9351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03223554753601732</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007899942154628539</v>
+        <v>0.007852018123771985</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08113986103460008</v>
+        <v>0.07420961095169015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>2934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7948</v>
+        <v>7216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06854407126606007</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02191645036803703</v>
+        <v>0.02141453342859207</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1856911105430299</v>
+        <v>0.1686052428525492</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -784,19 +784,19 @@
         <v>6996</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3018</v>
+        <v>2941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13846</v>
+        <v>13183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04144106161400681</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0178760660518588</v>
+        <v>0.01742339765431235</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08202092418759058</v>
+        <v>0.07809186842109057</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7987</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3737</v>
+        <v>4184</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16150</v>
+        <v>15841</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06337974660584113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02965823961431169</v>
+        <v>0.03320071021719197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.128156900334857</v>
+        <v>0.1257042906874267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6621</v>
+        <v>6099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04521286129734874</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1546936003375578</v>
+        <v>0.1425002329571721</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>9922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4846</v>
+        <v>5040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17626</v>
+        <v>17870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05877378907080174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02870335737847413</v>
+        <v>0.0298580562864218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1044097178641668</v>
+        <v>0.1058546647606727</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>4906</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1982</v>
+        <v>997</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10692</v>
+        <v>10739</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03893178508516894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01572652955644078</v>
+        <v>0.007913111167947316</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0848494299849909</v>
+        <v>0.08522399815588201</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -905,19 +905,19 @@
         <v>3727</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10865</v>
+        <v>9414</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08707801151343364</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02266449512253137</v>
+        <v>0.02284995574617686</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2538475767229013</v>
+        <v>0.2199549836419065</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -926,19 +926,19 @@
         <v>8633</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3947</v>
+        <v>4001</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18104</v>
+        <v>16840</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05113858171735298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02337893284437751</v>
+        <v>0.02370279641429966</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1072429829807341</v>
+        <v>0.09975219631715951</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>109059</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100030</v>
+        <v>100724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115417</v>
+        <v>115603</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8654529207729726</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.793803015318701</v>
+        <v>0.7993073473779428</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9159023685055167</v>
+        <v>0.9173784667880737</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -976,19 +976,19 @@
         <v>34204</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27549</v>
+        <v>28293</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38663</v>
+        <v>38982</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7991650559231576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6436672129312347</v>
+        <v>0.6610482374602726</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9033491322974652</v>
+        <v>0.9108031086208751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -997,19 +997,19 @@
         <v>143263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132135</v>
+        <v>132693</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>151805</v>
+        <v>151832</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8486465675978385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7827263688621482</v>
+        <v>0.7860278509652603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8992465582529043</v>
+        <v>0.8994029902681049</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>8280</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4062</v>
+        <v>3837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16268</v>
+        <v>15529</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03728612188271885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0182926267490903</v>
+        <v>0.01727958598449709</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07325941948896662</v>
+        <v>0.06992998138486148</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -1122,19 +1122,19 @@
         <v>11435</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6130</v>
+        <v>5451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20908</v>
+        <v>19771</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1319991470553462</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07076533355848345</v>
+        <v>0.06292829192781862</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2413517833398486</v>
+        <v>0.2282180110764069</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>17</v>
@@ -1143,19 +1143,19 @@
         <v>19715</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11703</v>
+        <v>10763</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30847</v>
+        <v>30322</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06386604103486579</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03791108831506318</v>
+        <v>0.03486496870912697</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09992664318666895</v>
+        <v>0.09822835870800409</v>
       </c>
     </row>
     <row r="10">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7197</v>
+        <v>6936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009087432316859876</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03241144448465908</v>
+        <v>0.03123502416388807</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7132</v>
+        <v>6952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006537168339518877</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02310299172730203</v>
+        <v>0.02251922120798766</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>7043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2919</v>
+        <v>2925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13038</v>
+        <v>13060</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03171654575295753</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01314553698129489</v>
+        <v>0.01317191400881686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05871210242633058</v>
+        <v>0.05881297462123607</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1256,19 +1256,19 @@
         <v>3079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8947</v>
+        <v>8305</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03554145214121106</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01131760695704843</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1032796280269285</v>
+        <v>0.09586570196877911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1277,19 +1277,19 @@
         <v>10122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5009</v>
+        <v>5151</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18460</v>
+        <v>17950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03278995358022321</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01622528322473205</v>
+        <v>0.01668691694361731</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05979970558913002</v>
+        <v>0.05814978585877711</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>204721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>195355</v>
+        <v>195160</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>211081</v>
+        <v>211778</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9219099000474638</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8797335827324761</v>
+        <v>0.8788541571401989</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9505496680117985</v>
+        <v>0.9536901596148732</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -1327,19 +1327,19 @@
         <v>72116</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62244</v>
+        <v>63423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78208</v>
+        <v>78851</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8324594008034427</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7184998202921938</v>
+        <v>0.7321161989460595</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9027766934514285</v>
+        <v>0.9101988751168191</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>253</v>
@@ -1348,19 +1348,19 @@
         <v>276837</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>263607</v>
+        <v>264388</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>286565</v>
+        <v>287128</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8968068370453921</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8539485733069079</v>
+        <v>0.8564767448977975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9283198923052254</v>
+        <v>0.9301437017517743</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>4902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1811</v>
+        <v>977</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13175</v>
+        <v>12984</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02818568643723086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01041279087652022</v>
+        <v>0.00561600603390637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07574645605276681</v>
+        <v>0.07464967664107114</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -1473,19 +1473,19 @@
         <v>3958</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8714</v>
+        <v>9081</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05069024019111768</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01252738052004219</v>
+        <v>0.01276762405663392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1115925627655558</v>
+        <v>0.1162947653209274</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1494,19 +1494,19 @@
         <v>8861</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3963</v>
+        <v>3958</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17720</v>
+        <v>16676</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03515865731473132</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01572667052495759</v>
+        <v>0.01570639466577553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07031116886921487</v>
+        <v>0.06617140832708965</v>
       </c>
     </row>
     <row r="15">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5966</v>
+        <v>6881</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01123430579997927</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03430301963137993</v>
+        <v>0.03956087597287557</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6042</v>
+        <v>6507</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01530854006118298</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07737534981831382</v>
+        <v>0.08332699760338164</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1565,19 +1565,19 @@
         <v>3149</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8846</v>
+        <v>9440</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01249669549951203</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003820201581412751</v>
+        <v>0.003825836557739182</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03510048674086107</v>
+        <v>0.03745735549438271</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>5936</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2800</v>
+        <v>2150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12025</v>
+        <v>12632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03412919642006165</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01610072369703007</v>
+        <v>0.0123592910214772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06913729619892771</v>
+        <v>0.07262406392204451</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6169</v>
+        <v>6023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0238835416908362</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07899662675821056</v>
+        <v>0.07713061087139307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1636,19 +1636,19 @@
         <v>7801</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3764</v>
+        <v>3710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14816</v>
+        <v>14727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03095460994173724</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01493668744212251</v>
+        <v>0.01472026635777439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05878983984114364</v>
+        <v>0.05843562786025269</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>161139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152676</v>
+        <v>152339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167021</v>
+        <v>166942</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9264508113427282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8777919680520091</v>
+        <v>0.8758559831117573</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9602651589390047</v>
+        <v>0.9598091203163717</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -1686,19 +1686,19 @@
         <v>71068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>64674</v>
+        <v>64752</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75175</v>
+        <v>75133</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9101176780568632</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8282322137163434</v>
+        <v>0.8292250334684702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9627102657378208</v>
+        <v>0.9621757865398178</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -1707,19 +1707,19 @@
         <v>232208</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221689</v>
+        <v>222002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239870</v>
+        <v>239435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9213900372440194</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.879650420259026</v>
+        <v>0.880893905953267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9517921088998759</v>
+        <v>0.9500662207153627</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>4037</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11786</v>
+        <v>12398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01947701925057297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00445552899273656</v>
+        <v>0.004416480923538743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05686352817429378</v>
+        <v>0.05981532207146052</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5421</v>
+        <v>4967</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009434446134127096</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05202193178050853</v>
+        <v>0.04766302722911307</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1853,19 +1853,19 @@
         <v>5020</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1811</v>
+        <v>993</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14316</v>
+        <v>14030</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0161172270138404</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005814818112252474</v>
+        <v>0.003187264387048693</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04596252005619805</v>
+        <v>0.04504497757429989</v>
       </c>
     </row>
     <row r="20">
@@ -1929,19 +1929,19 @@
         <v>6553</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2781</v>
+        <v>2815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12545</v>
+        <v>13191</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.031615208706227</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01341959186568018</v>
+        <v>0.01358020409948424</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06052824974020141</v>
+        <v>0.06364219411691972</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6678</v>
+        <v>7508</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01976908376190508</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06409078884059344</v>
+        <v>0.07205248063018703</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -1971,19 +1971,19 @@
         <v>8613</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4012</v>
+        <v>3761</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16066</v>
+        <v>15929</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02765202933359004</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01288104538163909</v>
+        <v>0.01207612983338298</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0515826279660687</v>
+        <v>0.05114150545903372</v>
       </c>
     </row>
     <row r="22">
@@ -2000,19 +2000,19 @@
         <v>196673</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188597</v>
+        <v>187853</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202337</v>
+        <v>202077</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9489077720432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9099406817606037</v>
+        <v>0.9063529129302274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9762338703923623</v>
+        <v>0.974976349835099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -2021,19 +2021,19 @@
         <v>101159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96106</v>
+        <v>95279</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103299</v>
+        <v>103305</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9707964701039679</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9223028968045175</v>
+        <v>0.9143711088727342</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.991337507381481</v>
+        <v>0.9913902804646542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>298</v>
@@ -2042,19 +2042,19 @@
         <v>297832</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>288351</v>
+        <v>288744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>303875</v>
+        <v>304282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9562307436525695</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.92578921915219</v>
+        <v>0.9270517852766614</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9756298250753987</v>
+        <v>0.9769366042790222</v>
       </c>
     </row>
     <row r="23">
@@ -2146,19 +2146,19 @@
         <v>21281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13195</v>
+        <v>13215</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33621</v>
+        <v>33101</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02918150302859183</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01809302238788786</v>
+        <v>0.01812107128680595</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04610243265859221</v>
+        <v>0.04538930960096984</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -2167,19 +2167,19 @@
         <v>19310</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11159</v>
+        <v>11285</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29709</v>
+        <v>30877</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0619472373951571</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03579953240341792</v>
+        <v>0.03620186201060324</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09530540852171843</v>
+        <v>0.0990541852826826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -2188,19 +2188,19 @@
         <v>40591</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>28201</v>
+        <v>28820</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56206</v>
+        <v>55479</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03899306463247249</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02709016983216426</v>
+        <v>0.02768548266008598</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05399237988360804</v>
+        <v>0.05329466050588699</v>
       </c>
     </row>
     <row r="25">
@@ -2217,19 +2217,19 @@
         <v>11959</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6560</v>
+        <v>5780</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20514</v>
+        <v>19898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01639816732310553</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008994932324113091</v>
+        <v>0.007925119099332753</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02812982060391489</v>
+        <v>0.02728509563628007</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2238,19 +2238,19 @@
         <v>3131</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9248</v>
+        <v>9298</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01004277032928511</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002975582385292508</v>
+        <v>0.002983110452557557</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02966777836024976</v>
+        <v>0.029826526969922</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2259,19 +2259,19 @@
         <v>15089</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8791</v>
+        <v>8435</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>25497</v>
+        <v>24456</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01449507037357961</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008445108748333119</v>
+        <v>0.0081026454814116</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02449259211718258</v>
+        <v>0.02349289435772106</v>
       </c>
     </row>
     <row r="26">
@@ -2288,19 +2288,19 @@
         <v>24438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16602</v>
+        <v>16528</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>35028</v>
+        <v>34549</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03350991686874603</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02276557412915657</v>
+        <v>0.02266383365650332</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04803105158758734</v>
+        <v>0.04737534006327996</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>10</v>
@@ -2309,19 +2309,19 @@
         <v>10731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5549</v>
+        <v>5468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19658</v>
+        <v>18718</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03442487371222169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01779972935605053</v>
+        <v>0.01754161924211674</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0630628138134694</v>
+        <v>0.06004872554053629</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -2330,19 +2330,19 @@
         <v>35169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>24300</v>
+        <v>23938</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>47301</v>
+        <v>48121</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03378389685449035</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02334343543837199</v>
+        <v>0.02299542311730204</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04543883343066785</v>
+        <v>0.04622597482618915</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>671592</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>654695</v>
+        <v>655370</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>685754</v>
+        <v>684880</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9209104127795567</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8977396197216582</v>
+        <v>0.8986657464052467</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9403298793813527</v>
+        <v>0.939130929013713</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>264</v>
@@ -2380,19 +2380,19 @@
         <v>278548</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>266816</v>
+        <v>264251</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>289122</v>
+        <v>288397</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8935851185633361</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8559486581329642</v>
+        <v>0.8477178544754167</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9275047576803087</v>
+        <v>0.9251786659748352</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>903</v>
@@ -2401,19 +2401,19 @@
         <v>950141</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>930460</v>
+        <v>930675</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>968861</v>
+        <v>967634</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9127279681394576</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8938223738379686</v>
+        <v>0.8940290764230998</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9307110671109766</v>
+        <v>0.9295328485108937</v>
       </c>
     </row>
     <row r="28">
@@ -2745,19 +2745,19 @@
         <v>6649</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2763</v>
+        <v>2666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14576</v>
+        <v>14574</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06951997700625487</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02888948008742493</v>
+        <v>0.02787373759675648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1524066192233377</v>
+        <v>0.1523755698638916</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2766,19 +2766,19 @@
         <v>2728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7455</v>
+        <v>7088</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09647574022131258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03042278968810324</v>
+        <v>0.03077585262712968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.263650249517705</v>
+        <v>0.2506568673972833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2787,19 +2787,19 @@
         <v>9377</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4433</v>
+        <v>4850</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17197</v>
+        <v>17797</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0756707990125304</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03577408163442955</v>
+        <v>0.03914223902391559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1387812730818026</v>
+        <v>0.1436230221278768</v>
       </c>
     </row>
     <row r="5">
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5633</v>
+        <v>5937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01165814980332345</v>
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05889158730205442</v>
+        <v>0.06207355733896436</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5629</v>
+        <v>6459</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008997968980742161</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04542863186317071</v>
+        <v>0.05212099896976712</v>
       </c>
     </row>
     <row r="6">
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7785</v>
+        <v>7976</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02354161434985757</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08139382872598766</v>
+        <v>0.08339276266599263</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5003</v>
+        <v>4110</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03304725765248152</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1769303810451475</v>
+        <v>0.1453419278441687</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -2921,19 +2921,19 @@
         <v>3186</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9216</v>
+        <v>8161</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02571063177084918</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00757416676439726</v>
+        <v>0.007571577506059637</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07437087431303384</v>
+        <v>0.06586103913170978</v>
       </c>
     </row>
     <row r="7">
@@ -2950,19 +2950,19 @@
         <v>85626</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>77296</v>
+        <v>78362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>90757</v>
+        <v>90875</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8952802588405641</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8081761220823743</v>
+        <v>0.8193227071481329</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9489203924722777</v>
+        <v>0.9501618950681529</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2971,19 +2971,19 @@
         <v>24614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19811</v>
+        <v>20016</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27334</v>
+        <v>27348</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8704770021262059</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7006322349276162</v>
+        <v>0.7078677214549826</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9666917943911213</v>
+        <v>0.9671969165454423</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>109</v>
@@ -2992,19 +2992,19 @@
         <v>110240</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102172</v>
+        <v>101983</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116433</v>
+        <v>115974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8896206002358783</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8245117992221123</v>
+        <v>0.8229866886246021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9395937604425779</v>
+        <v>0.9358937288911221</v>
       </c>
     </row>
     <row r="8">
@@ -3096,19 +3096,19 @@
         <v>6619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2634</v>
+        <v>2953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14258</v>
+        <v>14996</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02713351205423683</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01079644700002276</v>
+        <v>0.01210795691426679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05845121756673292</v>
+        <v>0.06147866230016379</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3117,19 +3117,19 @@
         <v>5487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1968</v>
+        <v>1858</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12717</v>
+        <v>12540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04617828754153513</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0165590818265521</v>
+        <v>0.01563337251312013</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1070283984557666</v>
+        <v>0.1055410281656882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -3138,19 +3138,19 @@
         <v>12105</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6438</v>
+        <v>6469</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20279</v>
+        <v>20810</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03337161879485189</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01774829167138513</v>
+        <v>0.01783407074408828</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05590355376261631</v>
+        <v>0.05736855254310457</v>
       </c>
     </row>
     <row r="10">
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6834</v>
+        <v>6438</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008065125034915461</v>
@@ -3179,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02801739987797954</v>
+        <v>0.02639470190879931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5922</v>
+        <v>7505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005423397340211797</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01632629313967678</v>
+        <v>0.02068995385988717</v>
       </c>
     </row>
     <row r="11">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7245</v>
+        <v>7251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008589112410800546</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02970237391010697</v>
+        <v>0.02972624600813477</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7241</v>
+        <v>6551</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005775752911684908</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01996213063541045</v>
+        <v>0.01805868520303366</v>
       </c>
     </row>
     <row r="12">
@@ -3293,19 +3293,19 @@
         <v>233248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>224548</v>
+        <v>224317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>238747</v>
+        <v>238455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9562122505000472</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9205452814831191</v>
+        <v>0.9195988423911582</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9787544917022926</v>
+        <v>0.977558628455237</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>115</v>
@@ -3314,19 +3314,19 @@
         <v>113331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>106101</v>
+        <v>106278</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116850</v>
+        <v>116960</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9538217124584649</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8929716015442335</v>
+        <v>0.8944589718343121</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9834409181734479</v>
+        <v>0.9843666274868799</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>330</v>
@@ -3335,19 +3335,19 @@
         <v>346579</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>336812</v>
+        <v>336790</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>353372</v>
+        <v>353105</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9554292309532514</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.928503806846927</v>
+        <v>0.9284444246387402</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9741551218237549</v>
+        <v>0.9734181170292884</v>
       </c>
     </row>
     <row r="13">
@@ -3439,19 +3439,19 @@
         <v>4929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10948</v>
+        <v>11058</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02313050933632159</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009020767173898245</v>
+        <v>0.00912870219549128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05137305508065621</v>
+        <v>0.0518905189140686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3460,19 +3460,19 @@
         <v>2922</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7853</v>
+        <v>7840</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02299678117159354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007088648139254957</v>
+        <v>0.007116327334672383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06179621636988755</v>
+        <v>0.06169185681803261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3481,19 +3481,19 @@
         <v>7852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3052</v>
+        <v>3835</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14557</v>
+        <v>14761</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02308055370188213</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008971293433466187</v>
+        <v>0.01127419214701736</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04279168064488476</v>
+        <v>0.04338930645044715</v>
       </c>
     </row>
     <row r="15">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007311927481991587</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0373856598498792</v>
+        <v>0.03734222351250298</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5419</v>
+        <v>5057</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.002731451351935118</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01592909632916226</v>
+        <v>0.01486612922709619</v>
       </c>
     </row>
     <row r="16">
@@ -3573,19 +3573,19 @@
         <v>4509</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1092</v>
+        <v>1347</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11670</v>
+        <v>11215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0211566103949457</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005124926280062578</v>
+        <v>0.006321672968294519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05476011789689574</v>
+        <v>0.05262427216464145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6761</v>
+        <v>6123</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01536019369026558</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05320316676096214</v>
+        <v>0.04818327468808473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3615,19 +3615,19 @@
         <v>6461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2363</v>
+        <v>3060</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13722</v>
+        <v>14558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01899129484943848</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006945261360335822</v>
+        <v>0.008995711908457384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04033783130600706</v>
+        <v>0.04279392638218175</v>
       </c>
     </row>
     <row r="17">
@@ -3644,19 +3644,19 @@
         <v>203669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195910</v>
+        <v>195406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208469</v>
+        <v>208174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9557128802687327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.919304654557023</v>
+        <v>0.916939282350371</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9782373353648112</v>
+        <v>0.9768519446403385</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -3665,19 +3665,19 @@
         <v>121277</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115295</v>
+        <v>115659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124982</v>
+        <v>125053</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9543310976561493</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9072599066842554</v>
+        <v>0.9101188980976757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.983485028178686</v>
+        <v>0.9840415923197351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -3686,19 +3686,19 @@
         <v>324946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>315738</v>
+        <v>315597</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>331432</v>
+        <v>330983</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9551967000967443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.928128618667651</v>
+        <v>0.9277149302469564</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9742599709180823</v>
+        <v>0.9729420540743952</v>
       </c>
     </row>
     <row r="18">
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5552</v>
+        <v>3788</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004533905784455282</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02705534230076369</v>
+        <v>0.01846004317032462</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -3811,19 +3811,19 @@
         <v>3998</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9330</v>
+        <v>9427</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03269150358812248</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009216735003173502</v>
+        <v>0.009177766874012217</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07628183967958571</v>
+        <v>0.07708000275681409</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -3832,19 +3832,19 @@
         <v>4929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1905</v>
+        <v>1825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10972</v>
+        <v>10359</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01504893975533944</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005816972512147093</v>
+        <v>0.005572407351779963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03349950605286112</v>
+        <v>0.0316301155142707</v>
       </c>
     </row>
     <row r="20">
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6364</v>
+        <v>5674</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.009026938663353901</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03101293429245935</v>
+        <v>0.0276477766376832</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -3929,19 +3929,19 @@
         <v>2903</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7582</v>
+        <v>8144</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02373619587337803</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007335306642053132</v>
+        <v>0.007264623827560681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06199189113508831</v>
+        <v>0.06658505275810744</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -3950,19 +3950,19 @@
         <v>4756</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1845</v>
+        <v>1825</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10407</v>
+        <v>10519</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01451989087924686</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005632864323829836</v>
+        <v>0.005572376728482435</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03177583163514326</v>
+        <v>0.03211724628812913</v>
       </c>
     </row>
     <row r="22">
@@ -3979,19 +3979,19 @@
         <v>202430</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>197663</v>
+        <v>197665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>204297</v>
+        <v>204311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9864391555521909</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9632074747756698</v>
+        <v>0.9632179238847313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9955372124265516</v>
+        <v>0.9956055579905506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>108</v>
@@ -4000,19 +4000,19 @@
         <v>115405</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108595</v>
+        <v>108550</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119391</v>
+        <v>119117</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9435723005384995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8878909627538971</v>
+        <v>0.8875188517374989</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9761577645655288</v>
+        <v>0.9739184119326109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>302</v>
@@ -4021,19 +4021,19 @@
         <v>317836</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>310607</v>
+        <v>310887</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>322599</v>
+        <v>322798</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9704311693654137</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9483617524074575</v>
+        <v>0.9492146231008577</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9849753247060243</v>
+        <v>0.9855824815539126</v>
       </c>
     </row>
     <row r="23">
@@ -4125,19 +4125,19 @@
         <v>19127</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11510</v>
+        <v>11802</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29922</v>
+        <v>29759</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02523765764538289</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01518707452054831</v>
+        <v>0.01557176624463644</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03948061213483218</v>
+        <v>0.03926539363273831</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -4146,19 +4146,19 @@
         <v>15136</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8645</v>
+        <v>7896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23338</v>
+        <v>23249</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03817476126463098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02180532415677143</v>
+        <v>0.01991435517335667</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05886190997776118</v>
+        <v>0.05863704809755268</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -4167,19 +4167,19 @@
         <v>34263</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24165</v>
+        <v>23937</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>46887</v>
+        <v>48177</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02968104549182696</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02093302400013279</v>
+        <v>0.02073624631060764</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04061663910178873</v>
+        <v>0.0417343448439667</v>
       </c>
     </row>
     <row r="25">
@@ -4196,19 +4196,19 @@
         <v>3082</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10195</v>
+        <v>8325</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.004066987703741184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001267538696980981</v>
+        <v>0.001267060867800753</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01345129296161529</v>
+        <v>0.01098380907229866</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4660</v>
+        <v>4666</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.002343627688716554</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01175381633391922</v>
+        <v>0.01176780524162382</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4238,19 +4238,19 @@
         <v>4012</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10295</v>
+        <v>9750</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003475081109253138</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008773140432211948</v>
+        <v>0.0008631251200823913</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008917913523132133</v>
+        <v>0.008446220264430876</v>
       </c>
     </row>
     <row r="26">
@@ -4267,19 +4267,19 @@
         <v>10708</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5215</v>
+        <v>5941</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>18773</v>
+        <v>19836</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01412837536745308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006880654465889987</v>
+        <v>0.007838231903445956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02477025851757857</v>
+        <v>0.0261732695994813</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>6</v>
@@ -4288,19 +4288,19 @@
         <v>5790</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11750</v>
+        <v>12731</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01460228829059688</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006980320840842502</v>
+        <v>0.00698388461145139</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02963674859917787</v>
+        <v>0.03210960625003393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4309,19 +4309,19 @@
         <v>16497</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>9875</v>
+        <v>9749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25965</v>
+        <v>25849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01429114587505239</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008554304157805254</v>
+        <v>0.008445059253619996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02249239885038332</v>
+        <v>0.02239252099714745</v>
       </c>
     </row>
     <row r="27">
@@ -4338,19 +4338,19 @@
         <v>724974</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>712312</v>
+        <v>713158</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>735154</v>
+        <v>735314</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9565669792834228</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9398608484702783</v>
+        <v>0.9409775822176837</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9699998558473335</v>
+        <v>0.9702107761475169</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>369</v>
@@ -4359,19 +4359,19 @@
         <v>374628</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>365008</v>
+        <v>365170</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>382248</v>
+        <v>383107</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9448793227560556</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9206173365991963</v>
+        <v>0.9210253227985549</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9640997589818088</v>
+        <v>0.9662665213908218</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1040</v>
@@ -4380,19 +4380,19 @@
         <v>1099601</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1084922</v>
+        <v>1083816</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1112922</v>
+        <v>1111357</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9525527275238675</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9398366335285938</v>
+        <v>0.9388786499486981</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9640919640670513</v>
+        <v>0.9627363764714983</v>
       </c>
     </row>
     <row r="28">
